--- a/weekly_online_paper_metrices/output/2023-08-20.xlsx
+++ b/weekly_online_paper_metrices/output/2023-08-20.xlsx
@@ -847,6 +847,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Guoping Zhao, Guoqing Zhang</t>
@@ -893,7 +896,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -952,6 +955,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Li Jin, Jiucun Wang</t>
@@ -1239,6 +1245,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Jianping Jia</t>
@@ -1295,6 +1304,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Xia Shen</t>
@@ -2270,7 +2282,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3152,6 +3164,12 @@
       <c r="G49">
         <v>2657</v>
       </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Mei Tian, Li Jin</t>
@@ -3854,6 +3872,12 @@
       <c r="G61">
         <v>2941</v>
       </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>Haomin Yang, Weimin Ye</t>
@@ -5903,6 +5927,12 @@
       <c r="G96">
         <v>4110</v>
       </c>
+      <c r="H96">
+        <v>9</v>
+      </c>
+      <c r="I96">
+        <v>39</v>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Jeremy K. Nicholson</t>
@@ -5955,6 +5985,12 @@
       </c>
       <c r="G97">
         <v>2908</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
